--- a/public/files/Plantilla-Empresa.xlsx
+++ b/public/files/Plantilla-Empresa.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanruizaguirre/Sites/Job/Brainbox/AsientoContables/public/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1EFDDD-28E6-AA4A-935E-8C0125909839}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DA40EB-9A24-DE44-A851-48165B4AC483}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1980" yWindow="460" windowWidth="28040" windowHeight="16760" xr2:uid="{5E890B20-ED90-7546-A118-F48036C6C859}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Empresas" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,72 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>RUC</t>
   </si>
   <si>
     <t>EMPRESA</t>
-  </si>
-  <si>
-    <t>Empresa nro 1</t>
-  </si>
-  <si>
-    <t>Empresa nro 2</t>
-  </si>
-  <si>
-    <t>Empresa nro 3</t>
-  </si>
-  <si>
-    <t>Empresa nro 4</t>
-  </si>
-  <si>
-    <t>Empresa nro 5</t>
-  </si>
-  <si>
-    <t>Empresa nro 6</t>
-  </si>
-  <si>
-    <t>Empresa nro 7</t>
-  </si>
-  <si>
-    <t>Empresa nro 8</t>
-  </si>
-  <si>
-    <t>Empresa nro 9</t>
-  </si>
-  <si>
-    <t>Empresa nro 10</t>
-  </si>
-  <si>
-    <t>Empresa nro 11</t>
-  </si>
-  <si>
-    <t>Empresa nro 12</t>
-  </si>
-  <si>
-    <t>Empresa nro 13</t>
-  </si>
-  <si>
-    <t>Empresa nro 14</t>
-  </si>
-  <si>
-    <t>Empresa nro 15</t>
-  </si>
-  <si>
-    <t>Empresa nro 16</t>
-  </si>
-  <si>
-    <t>Empresa nro 17</t>
-  </si>
-  <si>
-    <t>Empresa nro 18</t>
-  </si>
-  <si>
-    <t>Empresa nro 19</t>
-  </si>
-  <si>
-    <t>Empresa nro 20</t>
   </si>
 </sst>
 </file>
@@ -106,34 +46,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -142,8 +103,8 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -459,11 +420,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03EF110B-BEA5-9E41-BE3D-8F9BC9949CB5}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -471,7 +430,7 @@
     <col min="2" max="2" width="45.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -479,165 +438,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>10474727551</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>10474727552</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>10474727553</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>10474727554</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>10474727555</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>10474727557</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>10474727558</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>10474727559</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>10474727560</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>10474727561</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>10474727562</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>10474727563</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>10474727564</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>10474727565</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>10474727566</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>10474727567</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19">
-        <v>10474727568</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>10474727569</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21">
-        <v>10474727570</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/files/Plantilla-Empresa.xlsx
+++ b/public/files/Plantilla-Empresa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanruizaguirre/Sites/Job/Brainbox/AsientoContables/public/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DA40EB-9A24-DE44-A851-48165B4AC483}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9A748E-0448-C44D-842D-86DD25367E89}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1980" yWindow="460" windowWidth="28040" windowHeight="16760" xr2:uid="{5E890B20-ED90-7546-A118-F48036C6C859}"/>
   </bookViews>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>RUC</t>
   </si>
   <si>
     <t>EMPRESA</t>
+  </si>
+  <si>
+    <t>DIRECCION</t>
   </si>
 </sst>
 </file>
@@ -420,22 +423,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03EF110B-BEA5-9E41-BE3D-8F9BC9949CB5}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="66.33203125" customWidth="1"/>
-    <col min="2" max="2" width="45.6640625" customWidth="1"/>
+    <col min="1" max="1" width="55" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
+    <col min="3" max="3" width="54.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
